--- a/src/main/Book1.xlsx
+++ b/src/main/Book1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GoLang\testGoLang\src\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GoLang\diffHoursExcel\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C1A93488-A856-4E2F-A4CB-BDB1E76002C3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF747995-A460-45F0-ACC2-E7344D540709}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="795" yWindow="1530" windowWidth="21600" windowHeight="11385" xr2:uid="{6FC04785-90A3-467B-9CB0-BA0DF8E48B50}"/>
+    <workbookView xWindow="90" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{6FC04785-90A3-467B-9CB0-BA0DF8E48B50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4320,7 +4320,7 @@
   <dimension ref="A1:LS586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:LS586"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/Book1.xlsx
+++ b/src/main/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\GoLang\diffHoursExcel\src\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF747995-A460-45F0-ACC2-E7344D540709}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C5D6EF-E57F-40F3-9726-A2136A1E1951}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="1995" windowWidth="21600" windowHeight="11385" xr2:uid="{6FC04785-90A3-467B-9CB0-BA0DF8E48B50}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6FC04785-90A3-467B-9CB0-BA0DF8E48B50}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4320,10 +4320,17 @@
   <dimension ref="A1:LS586"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="11" max="11" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:331" ht="56.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -4978,10 +4985,10 @@
         <v>24</v>
       </c>
       <c r="K3" s="4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>26</v>
@@ -6449,7 +6456,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:331" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:331" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>15469</v>
       </c>
@@ -8411,7 +8418,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:331" ht="90" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:331" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>15768</v>
       </c>
@@ -10990,7 +10997,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:331" ht="90" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:331" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>16010</v>
       </c>
@@ -11426,7 +11433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="31" spans="1:331" ht="90" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:331" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>16012</v>
       </c>
@@ -11644,7 +11651,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="32" spans="1:331" ht="90" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:331" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>16020</v>
       </c>
@@ -12298,7 +12305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>16185</v>
       </c>
@@ -14696,7 +14703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="46" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>17048</v>
       </c>
@@ -14842,7 +14849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>17063</v>
       </c>
@@ -18766,7 +18773,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="65" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>17936</v>
       </c>
@@ -20074,7 +20081,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>18175</v>
       </c>
@@ -23012,7 +23019,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="85" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>19374</v>
       </c>
@@ -24756,7 +24763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>20221</v>
       </c>
@@ -25366,7 +25373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>20793</v>
       </c>
@@ -27982,7 +27989,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="108" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>22037</v>
       </c>
@@ -28418,7 +28425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>23349</v>
       </c>
@@ -29574,7 +29581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:331" ht="90" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:331" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>23577</v>
       </c>
@@ -30746,7 +30753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:331" ht="90" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:331" ht="60" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>26199</v>
       </c>
@@ -32531,7 +32538,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="129" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>28296</v>
       </c>
@@ -33621,7 +33628,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="134" spans="1:72" ht="105" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:72" ht="90" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>29570</v>
       </c>
@@ -34275,7 +34282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>30603</v>
       </c>
@@ -38265,7 +38272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:72" ht="105" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:72" ht="90" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>35478</v>
       </c>
@@ -39573,7 +39580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="162" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>37112</v>
       </c>
@@ -42407,7 +42414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>43476</v>
       </c>
@@ -42989,7 +42996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:72" ht="90" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:72" ht="60" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>43482</v>
       </c>
@@ -44161,7 +44168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:72" ht="105" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:72" ht="90" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>46973</v>
       </c>
@@ -50779,7 +50786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="217" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:66" ht="90" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>29942</v>
       </c>
@@ -51779,7 +51786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="222" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:66" ht="75" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>30907</v>
       </c>
@@ -52116,7 +52123,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="224" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:66" ht="105" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>31115</v>
       </c>
@@ -53116,7 +53123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="229" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>31584</v>
       </c>
@@ -53653,7 +53660,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="232" spans="1:66" ht="150" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:66" ht="90" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>32712</v>
       </c>
@@ -57853,7 +57860,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="253" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:66" ht="90" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>34902</v>
       </c>
@@ -61420,7 +61427,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="271" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>40106</v>
       </c>
@@ -61820,7 +61827,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="273" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>41118</v>
       </c>
@@ -62020,7 +62027,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="274" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:66" ht="90" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>41237</v>
       </c>
@@ -62620,7 +62627,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="277" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>41329</v>
       </c>
@@ -63550,7 +63557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:66" ht="90" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:66" ht="45" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>42312</v>
       </c>
@@ -64950,7 +64957,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="289" spans="1:66" ht="135" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:66" ht="105" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>47163</v>
       </c>
@@ -65138,7 +65145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:66" ht="150" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:66" ht="135" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>47164</v>
       </c>
